--- a/biology/Médecine/Industrie_pharmaceutique_en_Provence-Alpes-Côte_d'Azur/Industrie_pharmaceutique_en_Provence-Alpes-Côte_d'Azur.xlsx
+++ b/biology/Médecine/Industrie_pharmaceutique_en_Provence-Alpes-Côte_d'Azur/Industrie_pharmaceutique_en_Provence-Alpes-Côte_d'Azur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Industrie_pharmaceutique_en_Provence-Alpes-C%C3%B4te_d%27Azur</t>
+          <t>Industrie_pharmaceutique_en_Provence-Alpes-Côte_d'Azur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La région Provence-Alpes-Côte d'Azur n’apparaît pas comme un centre de développement de l’industrie pharmaceutique. Or, cette industrie y existe, de façon plus discrète qu’ailleurs et moins imposante que dans la large ceinture parisienne. Un riche tissu d’entreprises[réf. nécessaire] exerçant leurs activités dans le domaine de l’industrie pharmaceutique est présent.
 Au-delà des entreprises qui recherchent, produisent et exploitent leurs propres médicaments, une particularité de la région PACA est de posséder une riche nébuleuse d’entreprises[réf. nécessaire] dont la vocation n’est pas de commercialiser leurs propres médicaments mais d’offrir des services aux laboratoires pharmaceutiques à travers le monde.
